--- a/resultados_burnout_definitivos.xlsx
+++ b/resultados_burnout_definitivos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparación Modelos" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matriz Confusión" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Interpretación Clínica" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Predicciones Detalladas" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Comparación Modelos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Matriz Confusión" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Interpretación Clínica" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Predicciones Detalladas" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -789,14 +789,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>accuracy;0.9953703703703703;;</t>
+          <t>accuracy;0.9722222222222222;;</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>classification_error;0.00462962962962965;;</t>
+          <t>classification_error;0.02777777777777779;;</t>
         </is>
       </c>
     </row>
@@ -817,14 +817,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>recall;0.9876543209876543;;</t>
+          <t>recall;0.9259259259259259;;</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>f_measure;0.9937888198757764;;</t>
+          <t>f_measure;0.9615384615384616;;</t>
         </is>
       </c>
     </row>
